--- a/src/test/resources/jacobi/test/data/GaussianLikelihoodClassifierTest.xlsx
+++ b/src/test/resources/jacobi/test/data/GaussianLikelihoodClassifierTest.xlsx
@@ -237,9 +237,6 @@
     <t>class-3 mean and variance</t>
   </si>
   <si>
-    <t>#2</t>
-  </si>
-  <si>
     <t>Testing data</t>
   </si>
   <si>
@@ -274,6 +271,9 @@
   </si>
   <si>
     <t>Xor</t>
+  </si>
+  <si>
+    <t>#3</t>
   </si>
 </sst>
 </file>
@@ -20546,7 +20546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R628"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A548" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A551" workbookViewId="0">
       <selection activeCell="A564" sqref="A564"/>
     </sheetView>
   </sheetViews>
@@ -20594,7 +20594,7 @@
       </c>
       <c r="H1" s="1">
         <f ca="1">RAND()</f>
-        <v>4.9432362116717199E-2</v>
+        <v>0.15187351497678414</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>10</v>
@@ -20645,7 +20645,7 @@
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:H30" ca="1" si="0">RAND()</f>
-        <v>0.22504019596382263</v>
+        <v>0.12595829773133072</v>
       </c>
       <c r="I2" s="1">
         <v>2.29</v>
@@ -20696,7 +20696,7 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98118364927545487</v>
+        <v>5.7903554225783749E-2</v>
       </c>
       <c r="I3" s="1">
         <v>1.28</v>
@@ -20745,7 +20745,7 @@
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11168023874433841</v>
+        <v>0.43287058472357176</v>
       </c>
       <c r="I4" s="1">
         <v>2.81</v>
@@ -20797,7 +20797,7 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73719755991088254</v>
+        <v>0.36774914457563601</v>
       </c>
       <c r="I5" s="1">
         <v>2.1800000000000002</v>
@@ -20846,7 +20846,7 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66839927095860086</v>
+        <v>0.54885806227696088</v>
       </c>
       <c r="I6" s="1">
         <v>1.82</v>
@@ -20895,7 +20895,7 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11112531552132499</v>
+        <v>0.287664531983988</v>
       </c>
       <c r="I7" s="1">
         <v>1.97</v>
@@ -20944,7 +20944,7 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68668893471032832</v>
+        <v>0.77499775163611517</v>
       </c>
       <c r="I8" s="1">
         <v>1.98</v>
@@ -20993,7 +20993,7 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38686714379478093</v>
+        <v>0.83235394277380681</v>
       </c>
       <c r="I9" s="1">
         <v>1.25</v>
@@ -21042,7 +21042,7 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15488541307105697</v>
+        <v>6.1423817378644996E-2</v>
       </c>
       <c r="I10" s="1">
         <v>1.98</v>
@@ -21091,7 +21091,7 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15536737830977154</v>
+        <v>0.65342275935220628</v>
       </c>
       <c r="I11" s="1">
         <v>1.85</v>
@@ -21140,7 +21140,7 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77884048619337554</v>
+        <v>0.61707862721190632</v>
       </c>
       <c r="I12" s="1">
         <v>2.38</v>
@@ -21189,7 +21189,7 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80236519153920094</v>
+        <v>0.37130588654005547</v>
       </c>
       <c r="I13" s="1">
         <v>1.57</v>
@@ -21238,7 +21238,7 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21232835271169925</v>
+        <v>0.3285527489178981</v>
       </c>
       <c r="I14" s="1">
         <v>1.81</v>
@@ -21287,7 +21287,7 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18983036233186834</v>
+        <v>0.40176872351046922</v>
       </c>
       <c r="I15" s="1">
         <v>2.81</v>
@@ -21336,7 +21336,7 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0930706523687612E-2</v>
+        <v>8.6042343015245382E-2</v>
       </c>
       <c r="I16" s="1">
         <v>2.96</v>
@@ -21385,7 +21385,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83525354179262057</v>
+        <v>0.94280142261248334</v>
       </c>
       <c r="I17" s="1">
         <v>1.46</v>
@@ -21434,7 +21434,7 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2123004501303889E-2</v>
+        <v>0.29709029826401279</v>
       </c>
       <c r="I18" s="1">
         <v>1.97</v>
@@ -21483,7 +21483,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27264809619417285</v>
+        <v>0.19438260648829553</v>
       </c>
       <c r="I19" s="1">
         <v>1.72</v>
@@ -21532,7 +21532,7 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10405533714327009</v>
+        <v>0.55649945049762328</v>
       </c>
       <c r="I20" s="1">
         <v>1.86</v>
@@ -21581,7 +21581,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85690963489601213</v>
+        <v>0.44985882793668996</v>
       </c>
       <c r="I21" s="1">
         <v>1.66</v>
@@ -21630,7 +21630,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77567996297745856</v>
+        <v>0.41352625556071487</v>
       </c>
       <c r="I22" s="1">
         <v>2.1</v>
@@ -21679,7 +21679,7 @@
       </c>
       <c r="H23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44960078234414136</v>
+        <v>0.61808374947799649</v>
       </c>
       <c r="I23" s="1">
         <v>1.98</v>
@@ -21728,7 +21728,7 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34630587173075655</v>
+        <v>0.31554712049743527</v>
       </c>
       <c r="I24" s="1">
         <v>1.69</v>
@@ -21777,7 +21777,7 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7862949675100381E-3</v>
+        <v>0.3321122128337054</v>
       </c>
       <c r="I25" s="1">
         <v>1.46</v>
@@ -21826,7 +21826,7 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3487152084172429E-2</v>
+        <v>2.135616744778468E-2</v>
       </c>
       <c r="I26" s="1">
         <v>1.66</v>
@@ -21875,7 +21875,7 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92890784058061759</v>
+        <v>0.77499321544784894</v>
       </c>
       <c r="I27" s="1">
         <v>1.92</v>
@@ -21924,7 +21924,7 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.631763401299438E-2</v>
+        <v>0.21082038451501495</v>
       </c>
       <c r="I28" s="1">
         <v>1.45</v>
@@ -21973,7 +21973,7 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43621626933262825</v>
+        <v>0.96800903909647362</v>
       </c>
       <c r="I29" s="1">
         <v>1.35</v>
@@ -22022,7 +22022,7 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88542963623603821</v>
+        <v>2.5608669417061192E-2</v>
       </c>
       <c r="I30" s="1">
         <v>1.76</v>
@@ -35126,10 +35126,10 @@
     </row>
     <row r="563" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B563" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B563" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="564" spans="1:18" x14ac:dyDescent="0.3">
@@ -35148,22 +35148,22 @@
         <v>1</v>
       </c>
       <c r="G564" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H564" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H564" s="1" t="s">
+      <c r="I564" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I564" s="1" t="s">
+      <c r="J564" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J564" s="1" t="s">
+      <c r="K564" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K564" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="Q564" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R564" s="1" t="s">
         <v>1</v>
@@ -35171,27 +35171,27 @@
     </row>
     <row r="565" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
-        <f>INDEX(A$184:A$361,$R565+1)</f>
+        <f t="shared" ref="A565:F574" si="199">INDEX(A$184:A$361,$R565+1)</f>
         <v>14.75</v>
       </c>
       <c r="B565" s="1">
-        <f>INDEX(B$184:B$361,$R565+1)</f>
+        <f t="shared" si="199"/>
         <v>1.73</v>
       </c>
       <c r="C565" s="1">
-        <f>INDEX(C$184:C$361,$R565+1)</f>
+        <f t="shared" si="199"/>
         <v>3.1</v>
       </c>
       <c r="D565" s="1">
-        <f>INDEX(D$184:D$361,$R565+1)</f>
+        <f t="shared" si="199"/>
         <v>5.4</v>
       </c>
       <c r="E565" s="1">
-        <f>INDEX(E$184:E$361,$R565+1)</f>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="F565" s="1">
-        <f>INDEX(F$184:F$361,$R565+1)</f>
+        <f t="shared" si="199"/>
         <v>13</v>
       </c>
       <c r="G565" s="1">
@@ -35224,1544 +35224,1544 @@
     </row>
     <row r="566" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
-        <f>INDEX(A$184:A$361,$R566+1)</f>
+        <f t="shared" si="199"/>
         <v>13.74</v>
       </c>
       <c r="B566" s="1">
-        <f>INDEX(B$184:B$361,$R566+1)</f>
+        <f t="shared" si="199"/>
         <v>1.67</v>
       </c>
       <c r="C566" s="1">
-        <f>INDEX(C$184:C$361,$R566+1)</f>
+        <f t="shared" si="199"/>
         <v>2.6</v>
       </c>
       <c r="D566" s="1">
-        <f>INDEX(D$184:D$361,$R566+1)</f>
+        <f t="shared" si="199"/>
         <v>5.85</v>
       </c>
       <c r="E566" s="1">
-        <f>INDEX(E$184:E$361,$R566+1)</f>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="F566" s="1">
-        <f>INDEX(F$184:F$361,$R566+1)</f>
+        <f t="shared" si="199"/>
         <v>54</v>
       </c>
       <c r="G566" s="1">
-        <f t="shared" ref="G566:G594" si="199">POWER(A566-A$552,2)/A$553+POWER(B566-B$552,2)/B$553+POWER(C566-C$552,2)/C$553+POWER(D566-D$552,2)/D$553</f>
+        <f t="shared" ref="G566:G594" si="200">POWER(A566-A$552,2)/A$553+POWER(B566-B$552,2)/B$553+POWER(C566-C$552,2)/C$553+POWER(D566-D$552,2)/D$553</f>
         <v>0.8284473324151298</v>
       </c>
       <c r="H566" s="1">
-        <f t="shared" ref="H566:H594" si="200">POWER(A566-A$556,2)/A$557+POWER(B566-B$556,2)/B$557+POWER(C566-C$556,2)/C$557+POWER(D566-D$556,2)/D$557</f>
+        <f t="shared" ref="H566:H594" si="201">POWER(A566-A$556,2)/A$557+POWER(B566-B$556,2)/B$557+POWER(C566-C$556,2)/C$557+POWER(D566-D$556,2)/D$557</f>
         <v>17.002013335668401</v>
       </c>
       <c r="I566" s="1">
-        <f t="shared" ref="I566:I594" si="201">POWER(A566-A$560,2)/A$561+POWER(B566-B$560,2)/B$561+POWER(C566-C$560,2)/C$561+POWER(D566-D$560,2)/D$561</f>
+        <f t="shared" ref="I566:I594" si="202">POWER(A566-A$560,2)/A$561+POWER(B566-B$560,2)/B$561+POWER(C566-C$560,2)/C$561+POWER(D566-D$560,2)/D$561</f>
         <v>10.896148676690979</v>
       </c>
       <c r="J566" s="1">
-        <f t="shared" ref="J566:J594" si="202">MATCH(MIN(G566:I566),G566:I566,0)-1</f>
+        <f t="shared" ref="J566:J594" si="203">MATCH(MIN(G566:I566),G566:I566,0)-1</f>
         <v>0</v>
       </c>
       <c r="K566" s="1" t="b">
-        <f t="shared" ref="K566:K594" si="203">J566=E566</f>
+        <f t="shared" ref="K566:K594" si="204">J566=E566</f>
         <v>1</v>
       </c>
       <c r="Q566" s="1">
         <v>0.30758020744189873</v>
       </c>
       <c r="R566" s="1">
-        <f t="shared" ref="R566:R594" si="204">FLOOR(Q566*A$364,1)</f>
+        <f t="shared" ref="R566:R594" si="205">FLOOR(Q566*A$364,1)</f>
         <v>54</v>
       </c>
     </row>
     <row r="567" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
-        <f>INDEX(A$184:A$361,$R567+1)</f>
+        <f t="shared" si="199"/>
         <v>12.2</v>
       </c>
       <c r="B567" s="1">
-        <f>INDEX(B$184:B$361,$R567+1)</f>
+        <f t="shared" si="199"/>
         <v>3.03</v>
       </c>
       <c r="C567" s="1">
-        <f>INDEX(C$184:C$361,$R567+1)</f>
+        <f t="shared" si="199"/>
         <v>1.25</v>
       </c>
       <c r="D567" s="1">
-        <f>INDEX(D$184:D$361,$R567+1)</f>
+        <f t="shared" si="199"/>
         <v>5.5</v>
       </c>
       <c r="E567" s="1">
-        <f>INDEX(E$184:E$361,$R567+1)</f>
+        <f t="shared" si="199"/>
         <v>2</v>
       </c>
       <c r="F567" s="1">
-        <f>INDEX(F$184:F$361,$R567+1)</f>
+        <f t="shared" si="199"/>
         <v>170</v>
       </c>
       <c r="G567" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>35.983910644009256</v>
       </c>
       <c r="H567" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>11.582467226125138</v>
       </c>
       <c r="I567" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>5.5447226911049734</v>
       </c>
       <c r="J567" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>2</v>
       </c>
       <c r="K567" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q567" s="1">
         <v>0.9586116315892963</v>
       </c>
       <c r="R567" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>170</v>
       </c>
     </row>
     <row r="568" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
-        <f>INDEX(A$184:A$361,$R568+1)</f>
+        <f t="shared" si="199"/>
         <v>11.41</v>
       </c>
       <c r="B568" s="1">
-        <f>INDEX(B$184:B$361,$R568+1)</f>
+        <f t="shared" si="199"/>
         <v>0.74</v>
       </c>
       <c r="C568" s="1">
-        <f>INDEX(C$184:C$361,$R568+1)</f>
+        <f t="shared" si="199"/>
         <v>2.48</v>
       </c>
       <c r="D568" s="1">
-        <f>INDEX(D$184:D$361,$R568+1)</f>
+        <f t="shared" si="199"/>
         <v>3.08</v>
       </c>
       <c r="E568" s="1">
-        <f>INDEX(E$184:E$361,$R568+1)</f>
+        <f t="shared" si="199"/>
         <v>1</v>
       </c>
       <c r="F568" s="1">
-        <f>INDEX(F$184:F$361,$R568+1)</f>
+        <f t="shared" si="199"/>
         <v>113</v>
       </c>
       <c r="G568" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>34.552384738449142</v>
       </c>
       <c r="H568" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>4.2107044568108973</v>
       </c>
       <c r="I568" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>25.558204225985058</v>
       </c>
       <c r="J568" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="K568" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q568" s="1">
         <v>0.63734343845310737</v>
       </c>
       <c r="R568" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>113</v>
       </c>
     </row>
     <row r="569" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
-        <f>INDEX(A$184:A$361,$R569+1)</f>
+        <f t="shared" si="199"/>
         <v>12.77</v>
       </c>
       <c r="B569" s="1">
-        <f>INDEX(B$184:B$361,$R569+1)</f>
+        <f t="shared" si="199"/>
         <v>2.39</v>
       </c>
       <c r="C569" s="1">
-        <f>INDEX(C$184:C$361,$R569+1)</f>
+        <f t="shared" si="199"/>
         <v>1.39</v>
       </c>
       <c r="D569" s="1">
-        <f>INDEX(D$184:D$361,$R569+1)</f>
+        <f t="shared" si="199"/>
         <v>9.8999989999999993</v>
       </c>
       <c r="E569" s="1">
-        <f>INDEX(E$184:E$361,$R569+1)</f>
+        <f t="shared" si="199"/>
         <v>2</v>
       </c>
       <c r="F569" s="1">
-        <f>INDEX(F$184:F$361,$R569+1)</f>
+        <f t="shared" si="199"/>
         <v>171</v>
       </c>
       <c r="G569" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>36.126674440365576</v>
       </c>
       <c r="H569" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>58.664823306619233</v>
       </c>
       <c r="I569" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>3.1705037764243835</v>
       </c>
       <c r="J569" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>2</v>
       </c>
       <c r="K569" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q569" s="1">
         <v>0.96108117273128191</v>
       </c>
       <c r="R569" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>171</v>
       </c>
     </row>
     <row r="570" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
-        <f>INDEX(A$184:A$361,$R570+1)</f>
+        <f t="shared" si="199"/>
         <v>12.51</v>
       </c>
       <c r="B570" s="1">
-        <f>INDEX(B$184:B$361,$R570+1)</f>
+        <f t="shared" si="199"/>
         <v>1.73</v>
       </c>
       <c r="C570" s="1">
-        <f>INDEX(C$184:C$361,$R570+1)</f>
+        <f t="shared" si="199"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="D570" s="1">
-        <f>INDEX(D$184:D$361,$R570+1)</f>
+        <f t="shared" si="199"/>
         <v>2.94</v>
       </c>
       <c r="E570" s="1">
-        <f>INDEX(E$184:E$361,$R570+1)</f>
+        <f t="shared" si="199"/>
         <v>1</v>
       </c>
       <c r="F570" s="1">
-        <f>INDEX(F$184:F$361,$R570+1)</f>
+        <f t="shared" si="199"/>
         <v>104</v>
       </c>
       <c r="G570" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>15.501815067828709</v>
       </c>
       <c r="H570" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.26515358644159748</v>
       </c>
       <c r="I570" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>9.6998360929453593</v>
       </c>
       <c r="J570" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="K570" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q570" s="1">
         <v>0.58857189533956844</v>
       </c>
       <c r="R570" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>104</v>
       </c>
     </row>
     <row r="571" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
-        <f>INDEX(A$184:A$361,$R571+1)</f>
+        <f t="shared" si="199"/>
         <v>12.36</v>
       </c>
       <c r="B571" s="1">
-        <f>INDEX(B$184:B$361,$R571+1)</f>
+        <f t="shared" si="199"/>
         <v>3.83</v>
       </c>
       <c r="C571" s="1">
-        <f>INDEX(C$184:C$361,$R571+1)</f>
+        <f t="shared" si="199"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="D571" s="1">
-        <f>INDEX(D$184:D$361,$R571+1)</f>
+        <f t="shared" si="199"/>
         <v>7.65</v>
       </c>
       <c r="E571" s="1">
-        <f>INDEX(E$184:E$361,$R571+1)</f>
+        <f t="shared" si="199"/>
         <v>2</v>
       </c>
       <c r="F571" s="1">
-        <f>INDEX(F$184:F$361,$R571+1)</f>
+        <f t="shared" si="199"/>
         <v>160</v>
       </c>
       <c r="G571" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>21.803908159468016</v>
       </c>
       <c r="H571" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>28.25883381032196</v>
       </c>
       <c r="I571" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>5.6066013183420855</v>
       </c>
       <c r="J571" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>2</v>
       </c>
       <c r="K571" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q571" s="1">
         <v>0.90095484840150342</v>
       </c>
       <c r="R571" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>160</v>
       </c>
     </row>
     <row r="572" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
-        <f>INDEX(A$184:A$361,$R572+1)</f>
+        <f t="shared" si="199"/>
         <v>11.62</v>
       </c>
       <c r="B572" s="1">
-        <f>INDEX(B$184:B$361,$R572+1)</f>
+        <f t="shared" si="199"/>
         <v>1.99</v>
       </c>
       <c r="C572" s="1">
-        <f>INDEX(C$184:C$361,$R572+1)</f>
+        <f t="shared" si="199"/>
         <v>3.02</v>
       </c>
       <c r="D572" s="1">
-        <f>INDEX(D$184:D$361,$R572+1)</f>
+        <f t="shared" si="199"/>
         <v>3.25</v>
       </c>
       <c r="E572" s="1">
-        <f>INDEX(E$184:E$361,$R572+1)</f>
+        <f t="shared" si="199"/>
         <v>1</v>
       </c>
       <c r="F572" s="1">
-        <f>INDEX(F$184:F$361,$R572+1)</f>
+        <f t="shared" si="199"/>
         <v>94</v>
       </c>
       <c r="G572" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>25.233143467794395</v>
       </c>
       <c r="H572" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>3.5313091426779311</v>
       </c>
       <c r="I572" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>27.808301528311993</v>
       </c>
       <c r="J572" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="K572" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q572" s="1">
         <v>0.53355378604339898</v>
       </c>
       <c r="R572" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>94</v>
       </c>
     </row>
     <row r="573" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
-        <f>INDEX(A$184:A$361,$R573+1)</f>
+        <f t="shared" si="199"/>
         <v>14.38</v>
       </c>
       <c r="B573" s="1">
-        <f>INDEX(B$184:B$361,$R573+1)</f>
+        <f t="shared" si="199"/>
         <v>1.87</v>
       </c>
       <c r="C573" s="1">
-        <f>INDEX(C$184:C$361,$R573+1)</f>
+        <f t="shared" si="199"/>
         <v>3.3</v>
       </c>
       <c r="D573" s="1">
-        <f>INDEX(D$184:D$361,$R573+1)</f>
+        <f t="shared" si="199"/>
         <v>7.5</v>
       </c>
       <c r="E573" s="1">
-        <f>INDEX(E$184:E$361,$R573+1)</f>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="F573" s="1">
-        <f>INDEX(F$184:F$361,$R573+1)</f>
+        <f t="shared" si="199"/>
         <v>14</v>
       </c>
       <c r="G573" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>6.4145907809116558</v>
       </c>
       <c r="H573" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>42.268220978116908</v>
       </c>
       <c r="I573" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>28.378705619011882</v>
       </c>
       <c r="J573" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="K573" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q573" s="1">
         <v>7.8698291084195238E-2</v>
       </c>
       <c r="R573" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>14</v>
       </c>
     </row>
     <row r="574" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
-        <f>INDEX(A$184:A$361,$R574+1)</f>
+        <f t="shared" si="199"/>
         <v>12.17</v>
       </c>
       <c r="B574" s="1">
-        <f>INDEX(B$184:B$361,$R574+1)</f>
+        <f t="shared" si="199"/>
         <v>1.45</v>
       </c>
       <c r="C574" s="1">
-        <f>INDEX(C$184:C$361,$R574+1)</f>
+        <f t="shared" si="199"/>
         <v>1.89</v>
       </c>
       <c r="D574" s="1">
-        <f>INDEX(D$184:D$361,$R574+1)</f>
+        <f t="shared" si="199"/>
         <v>2.95</v>
       </c>
       <c r="E574" s="1">
-        <f>INDEX(E$184:E$361,$R574+1)</f>
+        <f t="shared" si="199"/>
         <v>1</v>
       </c>
       <c r="F574" s="1">
-        <f>INDEX(F$184:F$361,$R574+1)</f>
+        <f t="shared" si="199"/>
         <v>64</v>
       </c>
       <c r="G574" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>24.88792551777642</v>
       </c>
       <c r="H574" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.75670989833599123</v>
       </c>
       <c r="I574" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>10.715536051188192</v>
       </c>
       <c r="J574" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="K574" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q574" s="1">
         <v>0.36499838425861575</v>
       </c>
       <c r="R574" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>64</v>
       </c>
     </row>
     <row r="575" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
-        <f>INDEX(A$184:A$361,$R575+1)</f>
+        <f t="shared" ref="A575:F584" si="206">INDEX(A$184:A$361,$R575+1)</f>
         <v>13.41</v>
       </c>
       <c r="B575" s="1">
-        <f>INDEX(B$184:B$361,$R575+1)</f>
+        <f t="shared" si="206"/>
         <v>3.84</v>
       </c>
       <c r="C575" s="1">
-        <f>INDEX(C$184:C$361,$R575+1)</f>
+        <f t="shared" si="206"/>
         <v>2.4500000000000002</v>
       </c>
       <c r="D575" s="1">
-        <f>INDEX(D$184:D$361,$R575+1)</f>
+        <f t="shared" si="206"/>
         <v>4.28</v>
       </c>
       <c r="E575" s="1">
-        <f>INDEX(E$184:E$361,$R575+1)</f>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="F575" s="1">
-        <f>INDEX(F$184:F$361,$R575+1)</f>
+        <f t="shared" si="206"/>
         <v>41</v>
       </c>
       <c r="G575" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>10.095022912395283</v>
       </c>
       <c r="H575" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>9.8758907228034669</v>
       </c>
       <c r="I575" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>7.0840013064728495</v>
       </c>
       <c r="J575" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>2</v>
       </c>
       <c r="K575" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="Q575" s="1">
         <v>0.23168094246627458</v>
       </c>
       <c r="R575" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>41</v>
       </c>
     </row>
     <row r="576" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
-        <f>INDEX(A$184:A$361,$R576+1)</f>
+        <f t="shared" si="206"/>
         <v>13.56</v>
       </c>
       <c r="B576" s="1">
-        <f>INDEX(B$184:B$361,$R576+1)</f>
+        <f t="shared" si="206"/>
         <v>1.73</v>
       </c>
       <c r="C576" s="1">
-        <f>INDEX(C$184:C$361,$R576+1)</f>
+        <f t="shared" si="206"/>
         <v>2.96</v>
       </c>
       <c r="D576" s="1">
-        <f>INDEX(D$184:D$361,$R576+1)</f>
+        <f t="shared" si="206"/>
         <v>6.25</v>
       </c>
       <c r="E576" s="1">
-        <f>INDEX(E$184:E$361,$R576+1)</f>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="F576" s="1">
-        <f>INDEX(F$184:F$361,$R576+1)</f>
+        <f t="shared" si="206"/>
         <v>55</v>
       </c>
       <c r="G576" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.80411364059924817</v>
       </c>
       <c r="H576" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>19.334748181845974</v>
       </c>
       <c r="I576" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>16.22680370445671</v>
       </c>
       <c r="J576" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="K576" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q576" s="1">
         <v>0.31046672677553966</v>
       </c>
       <c r="R576" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>55</v>
       </c>
     </row>
     <row r="577" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
-        <f>INDEX(A$184:A$361,$R577+1)</f>
+        <f t="shared" si="206"/>
         <v>12.33</v>
       </c>
       <c r="B577" s="1">
-        <f>INDEX(B$184:B$361,$R577+1)</f>
+        <f t="shared" si="206"/>
         <v>0.99</v>
       </c>
       <c r="C577" s="1">
-        <f>INDEX(C$184:C$361,$R577+1)</f>
+        <f t="shared" si="206"/>
         <v>1.9</v>
       </c>
       <c r="D577" s="1">
-        <f>INDEX(D$184:D$361,$R577+1)</f>
+        <f t="shared" si="206"/>
         <v>3.4</v>
       </c>
       <c r="E577" s="1">
-        <f>INDEX(E$184:E$361,$R577+1)</f>
+        <f t="shared" si="206"/>
         <v>1</v>
       </c>
       <c r="F577" s="1">
-        <f>INDEX(F$184:F$361,$R577+1)</f>
+        <f t="shared" si="206"/>
         <v>78</v>
       </c>
       <c r="G577" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>22.59855011859101</v>
       </c>
       <c r="H577" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>1.4387692829525551</v>
       </c>
       <c r="I577" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>10.65122049781133</v>
       </c>
       <c r="J577" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="K577" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q577" s="1">
         <v>0.44289746032865529</v>
       </c>
       <c r="R577" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>78</v>
       </c>
     </row>
     <row r="578" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
-        <f>INDEX(A$184:A$361,$R578+1)</f>
+        <f t="shared" si="206"/>
         <v>13.5</v>
       </c>
       <c r="B578" s="1">
-        <f>INDEX(B$184:B$361,$R578+1)</f>
+        <f t="shared" si="206"/>
         <v>1.81</v>
       </c>
       <c r="C578" s="1">
-        <f>INDEX(C$184:C$361,$R578+1)</f>
+        <f t="shared" si="206"/>
         <v>2.5299999999999998</v>
       </c>
       <c r="D578" s="1">
-        <f>INDEX(D$184:D$361,$R578+1)</f>
+        <f t="shared" si="206"/>
         <v>3.52</v>
       </c>
       <c r="E578" s="1">
-        <f>INDEX(E$184:E$361,$R578+1)</f>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="F578" s="1">
-        <f>INDEX(F$184:F$361,$R578+1)</f>
+        <f t="shared" si="206"/>
         <v>24</v>
       </c>
       <c r="G578" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>3.8979845253924843</v>
       </c>
       <c r="H578" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>5.7154430600381758</v>
       </c>
       <c r="I578" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>11.119873176711922</v>
       </c>
       <c r="J578" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="K578" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q578" s="1">
         <v>0.13629154368235763</v>
       </c>
       <c r="R578" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>24</v>
       </c>
     </row>
     <row r="579" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
-        <f>INDEX(A$184:A$361,$R579+1)</f>
+        <f t="shared" si="206"/>
         <v>13.07</v>
       </c>
       <c r="B579" s="1">
-        <f>INDEX(B$184:B$361,$R579+1)</f>
+        <f t="shared" si="206"/>
         <v>1.5</v>
       </c>
       <c r="C579" s="1">
-        <f>INDEX(C$184:C$361,$R579+1)</f>
+        <f t="shared" si="206"/>
         <v>2.4</v>
       </c>
       <c r="D579" s="1">
-        <f>INDEX(D$184:D$361,$R579+1)</f>
+        <f t="shared" si="206"/>
         <v>3.7</v>
       </c>
       <c r="E579" s="1">
-        <f>INDEX(E$184:E$361,$R579+1)</f>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="F579" s="1">
-        <f>INDEX(F$184:F$361,$R579+1)</f>
+        <f t="shared" si="206"/>
         <v>38</v>
       </c>
       <c r="G579" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>6.6601354496217047</v>
       </c>
       <c r="H579" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>2.8924193017743942</v>
       </c>
       <c r="I579" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>9.7089611828094142</v>
       </c>
       <c r="J579" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="K579" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="Q579" s="1">
         <v>0.21430513760436298</v>
       </c>
       <c r="R579" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>38</v>
       </c>
     </row>
     <row r="580" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
-        <f>INDEX(A$184:A$361,$R580+1)</f>
+        <f t="shared" si="206"/>
         <v>12.82</v>
       </c>
       <c r="B580" s="1">
-        <f>INDEX(B$184:B$361,$R580+1)</f>
+        <f t="shared" si="206"/>
         <v>3.37</v>
       </c>
       <c r="C580" s="1">
-        <f>INDEX(C$184:C$361,$R580+1)</f>
+        <f t="shared" si="206"/>
         <v>1.48</v>
       </c>
       <c r="D580" s="1">
-        <f>INDEX(D$184:D$361,$R580+1)</f>
+        <f t="shared" si="206"/>
         <v>10.26</v>
       </c>
       <c r="E580" s="1">
-        <f>INDEX(E$184:E$361,$R580+1)</f>
+        <f t="shared" si="206"/>
         <v>2</v>
       </c>
       <c r="F580" s="1">
-        <f>INDEX(F$184:F$361,$R580+1)</f>
+        <f t="shared" si="206"/>
         <v>167</v>
       </c>
       <c r="G580" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>39.263935218382507</v>
       </c>
       <c r="H580" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>66.135863711391451</v>
       </c>
       <c r="I580" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>2.2906550098168044</v>
       </c>
       <c r="J580" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>2</v>
       </c>
       <c r="K580" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q580" s="1">
         <v>0.94336584920271915</v>
       </c>
       <c r="R580" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>167</v>
       </c>
     </row>
     <row r="581" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
-        <f>INDEX(A$184:A$361,$R581+1)</f>
+        <f t="shared" si="206"/>
         <v>12.85</v>
       </c>
       <c r="B581" s="1">
-        <f>INDEX(B$184:B$361,$R581+1)</f>
+        <f t="shared" si="206"/>
         <v>1.6</v>
       </c>
       <c r="C581" s="1">
-        <f>INDEX(C$184:C$361,$R581+1)</f>
+        <f t="shared" si="206"/>
         <v>2.48</v>
       </c>
       <c r="D581" s="1">
-        <f>INDEX(D$184:D$361,$R581+1)</f>
+        <f t="shared" si="206"/>
         <v>3.93</v>
       </c>
       <c r="E581" s="1">
-        <f>INDEX(E$184:E$361,$R581+1)</f>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="F581" s="1">
-        <f>INDEX(F$184:F$361,$R581+1)</f>
+        <f t="shared" si="206"/>
         <v>23</v>
       </c>
       <c r="G581" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>7.0176640661264305</v>
       </c>
       <c r="H581" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>2.2626622850633638</v>
       </c>
       <c r="I581" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>10.371920377726905</v>
       </c>
       <c r="J581" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="K581" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="Q581" s="1">
         <v>0.13329939199895346</v>
       </c>
       <c r="R581" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>23</v>
       </c>
     </row>
     <row r="582" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
-        <f>INDEX(A$184:A$361,$R582+1)</f>
+        <f t="shared" si="206"/>
         <v>13.75</v>
       </c>
       <c r="B582" s="1">
-        <f>INDEX(B$184:B$361,$R582+1)</f>
+        <f t="shared" si="206"/>
         <v>1.73</v>
       </c>
       <c r="C582" s="1">
-        <f>INDEX(C$184:C$361,$R582+1)</f>
+        <f t="shared" si="206"/>
         <v>2.6</v>
       </c>
       <c r="D582" s="1">
-        <f>INDEX(D$184:D$361,$R582+1)</f>
+        <f t="shared" si="206"/>
         <v>5.6</v>
       </c>
       <c r="E582" s="1">
-        <f>INDEX(E$184:E$361,$R582+1)</f>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="F582" s="1">
-        <f>INDEX(F$184:F$361,$R582+1)</f>
+        <f t="shared" si="206"/>
         <v>12</v>
       </c>
       <c r="G582" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.68326513371951225</v>
       </c>
       <c r="H582" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>15.513282016585475</v>
       </c>
       <c r="I582" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>10.929730316319345</v>
       </c>
       <c r="J582" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="K582" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q582" s="1">
         <v>6.8129893301777877E-2</v>
       </c>
       <c r="R582" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>12</v>
       </c>
     </row>
     <row r="583" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
-        <f>INDEX(A$184:A$361,$R583+1)</f>
+        <f t="shared" si="206"/>
         <v>13.08</v>
       </c>
       <c r="B583" s="1">
-        <f>INDEX(B$184:B$361,$R583+1)</f>
+        <f t="shared" si="206"/>
         <v>3.9</v>
       </c>
       <c r="C583" s="1">
-        <f>INDEX(C$184:C$361,$R583+1)</f>
+        <f t="shared" si="206"/>
         <v>1.41</v>
       </c>
       <c r="D583" s="1">
-        <f>INDEX(D$184:D$361,$R583+1)</f>
+        <f t="shared" si="206"/>
         <v>9.4</v>
       </c>
       <c r="E583" s="1">
-        <f>INDEX(E$184:E$361,$R583+1)</f>
+        <f t="shared" si="206"/>
         <v>2</v>
       </c>
       <c r="F583" s="1">
-        <f>INDEX(F$184:F$361,$R583+1)</f>
+        <f t="shared" si="206"/>
         <v>149</v>
       </c>
       <c r="G583" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>37.81282633757597</v>
       </c>
       <c r="H583" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>55.770873734506083</v>
       </c>
       <c r="I583" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>1.6431057889601908</v>
       </c>
       <c r="J583" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>2</v>
       </c>
       <c r="K583" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q583" s="1">
         <v>0.84001561411486125</v>
       </c>
       <c r="R583" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>149</v>
       </c>
     </row>
     <row r="584" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
-        <f>INDEX(A$184:A$361,$R584+1)</f>
+        <f t="shared" si="206"/>
         <v>13.62</v>
       </c>
       <c r="B584" s="1">
-        <f>INDEX(B$184:B$361,$R584+1)</f>
+        <f t="shared" si="206"/>
         <v>4.95</v>
       </c>
       <c r="C584" s="1">
-        <f>INDEX(C$184:C$361,$R584+1)</f>
+        <f t="shared" si="206"/>
         <v>2</v>
       </c>
       <c r="D584" s="1">
-        <f>INDEX(D$184:D$361,$R584+1)</f>
+        <f t="shared" si="206"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E584" s="1">
-        <f>INDEX(E$184:E$361,$R584+1)</f>
+        <f t="shared" si="206"/>
         <v>2</v>
       </c>
       <c r="F584" s="1">
-        <f>INDEX(F$184:F$361,$R584+1)</f>
+        <f t="shared" si="206"/>
         <v>143</v>
       </c>
       <c r="G584" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>25.705377412661928</v>
       </c>
       <c r="H584" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>17.532026961486267</v>
       </c>
       <c r="I584" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>5.5876914923331773</v>
       </c>
       <c r="J584" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>2</v>
       </c>
       <c r="K584" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q584" s="1">
         <v>0.80384453780792942</v>
       </c>
       <c r="R584" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>143</v>
       </c>
     </row>
     <row r="585" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
-        <f>INDEX(A$184:A$361,$R585+1)</f>
+        <f t="shared" ref="A585:F594" si="207">INDEX(A$184:A$361,$R585+1)</f>
         <v>12.93</v>
       </c>
       <c r="B585" s="1">
-        <f>INDEX(B$184:B$361,$R585+1)</f>
+        <f t="shared" si="207"/>
         <v>3.8</v>
       </c>
       <c r="C585" s="1">
-        <f>INDEX(C$184:C$361,$R585+1)</f>
+        <f t="shared" si="207"/>
         <v>2.41</v>
       </c>
       <c r="D585" s="1">
-        <f>INDEX(D$184:D$361,$R585+1)</f>
+        <f t="shared" si="207"/>
         <v>4.5</v>
       </c>
       <c r="E585" s="1">
-        <f>INDEX(E$184:E$361,$R585+1)</f>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="F585" s="1">
-        <f>INDEX(F$184:F$361,$R585+1)</f>
+        <f t="shared" si="207"/>
         <v>21</v>
       </c>
       <c r="G585" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>12.371012771187814</v>
       </c>
       <c r="H585" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>7.3619554456964131</v>
       </c>
       <c r="I585" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>6.2591408124688712</v>
       </c>
       <c r="J585" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>2</v>
       </c>
       <c r="K585" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="Q585" s="1">
         <v>0.11882101373568132</v>
       </c>
       <c r="R585" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>21</v>
       </c>
     </row>
     <row r="586" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
-        <f>INDEX(A$184:A$361,$R586+1)</f>
+        <f t="shared" si="207"/>
         <v>13.75</v>
       </c>
       <c r="B586" s="1">
-        <f>INDEX(B$184:B$361,$R586+1)</f>
+        <f t="shared" si="207"/>
         <v>1.73</v>
       </c>
       <c r="C586" s="1">
-        <f>INDEX(C$184:C$361,$R586+1)</f>
+        <f t="shared" si="207"/>
         <v>2.6</v>
       </c>
       <c r="D586" s="1">
-        <f>INDEX(D$184:D$361,$R586+1)</f>
+        <f t="shared" si="207"/>
         <v>5.6</v>
       </c>
       <c r="E586" s="1">
-        <f>INDEX(E$184:E$361,$R586+1)</f>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="F586" s="1">
-        <f>INDEX(F$184:F$361,$R586+1)</f>
+        <f t="shared" si="207"/>
         <v>12</v>
       </c>
       <c r="G586" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.68326513371951225</v>
       </c>
       <c r="H586" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>15.513282016585475</v>
       </c>
       <c r="I586" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>10.929730316319345</v>
       </c>
       <c r="J586" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="K586" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q586" s="1">
         <v>7.112240508542178E-2</v>
       </c>
       <c r="R586" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>12</v>
       </c>
     </row>
     <row r="587" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
-        <f>INDEX(A$184:A$361,$R587+1)</f>
+        <f t="shared" si="207"/>
         <v>13.28</v>
       </c>
       <c r="B587" s="1">
-        <f>INDEX(B$184:B$361,$R587+1)</f>
+        <f t="shared" si="207"/>
         <v>1.64</v>
       </c>
       <c r="C587" s="1">
-        <f>INDEX(C$184:C$361,$R587+1)</f>
+        <f t="shared" si="207"/>
         <v>2.6</v>
       </c>
       <c r="D587" s="1">
-        <f>INDEX(D$184:D$361,$R587+1)</f>
+        <f t="shared" si="207"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="E587" s="1">
-        <f>INDEX(E$184:E$361,$R587+1)</f>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="F587" s="1">
-        <f>INDEX(F$184:F$361,$R587+1)</f>
+        <f t="shared" si="207"/>
         <v>36</v>
       </c>
       <c r="G587" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>2.40574570464885</v>
       </c>
       <c r="H587" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>6.7101343650670096</v>
       </c>
       <c r="I587" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>10.830580508629684</v>
       </c>
       <c r="J587" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="K587" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q587" s="1">
         <v>0.20304609802302476</v>
       </c>
       <c r="R587" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>36</v>
       </c>
     </row>
     <row r="588" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
-        <f>INDEX(A$184:A$361,$R588+1)</f>
+        <f t="shared" si="207"/>
         <v>13.16</v>
       </c>
       <c r="B588" s="1">
-        <f>INDEX(B$184:B$361,$R588+1)</f>
+        <f t="shared" si="207"/>
         <v>3.57</v>
       </c>
       <c r="C588" s="1">
-        <f>INDEX(C$184:C$361,$R588+1)</f>
+        <f t="shared" si="207"/>
         <v>1.5</v>
       </c>
       <c r="D588" s="1">
-        <f>INDEX(D$184:D$361,$R588+1)</f>
+        <f t="shared" si="207"/>
         <v>4</v>
       </c>
       <c r="E588" s="1">
-        <f>INDEX(E$184:E$361,$R588+1)</f>
+        <f t="shared" si="207"/>
         <v>2</v>
       </c>
       <c r="F588" s="1">
-        <f>INDEX(F$184:F$361,$R588+1)</f>
+        <f t="shared" si="207"/>
         <v>145</v>
       </c>
       <c r="G588" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>24.296257937260901</v>
       </c>
       <c r="H588" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>8.3113431013021462</v>
       </c>
       <c r="I588" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>2.5101723880954978</v>
       </c>
       <c r="J588" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>2</v>
       </c>
       <c r="K588" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q588" s="1">
         <v>0.81580785126326161</v>
       </c>
       <c r="R588" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>145</v>
       </c>
     </row>
     <row r="589" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
-        <f>INDEX(A$184:A$361,$R589+1)</f>
+        <f t="shared" si="207"/>
         <v>12.37</v>
       </c>
       <c r="B589" s="1">
-        <f>INDEX(B$184:B$361,$R589+1)</f>
+        <f t="shared" si="207"/>
         <v>0.94</v>
       </c>
       <c r="C589" s="1">
-        <f>INDEX(C$184:C$361,$R589+1)</f>
+        <f t="shared" si="207"/>
         <v>1.98</v>
       </c>
       <c r="D589" s="1">
-        <f>INDEX(D$184:D$361,$R589+1)</f>
+        <f t="shared" si="207"/>
         <v>1.95</v>
       </c>
       <c r="E589" s="1">
-        <f>INDEX(E$184:E$361,$R589+1)</f>
+        <f t="shared" si="207"/>
         <v>1</v>
       </c>
       <c r="F589" s="1">
-        <f>INDEX(F$184:F$361,$R589+1)</f>
+        <f t="shared" si="207"/>
         <v>59</v>
       </c>
       <c r="G589" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>26.503162401942696</v>
       </c>
       <c r="H589" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>2.7951865417554389</v>
       </c>
       <c r="I589" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>13.575367556927748</v>
       </c>
       <c r="J589" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="K589" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q589" s="1">
         <v>0.33569077247859846</v>
       </c>
       <c r="R589" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>59</v>
       </c>
     </row>
     <row r="590" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
-        <f>INDEX(A$184:A$361,$R590+1)</f>
+        <f t="shared" si="207"/>
         <v>13.4</v>
       </c>
       <c r="B590" s="1">
-        <f>INDEX(B$184:B$361,$R590+1)</f>
+        <f t="shared" si="207"/>
         <v>3.91</v>
       </c>
       <c r="C590" s="1">
-        <f>INDEX(C$184:C$361,$R590+1)</f>
+        <f t="shared" si="207"/>
         <v>1.8</v>
       </c>
       <c r="D590" s="1">
-        <f>INDEX(D$184:D$361,$R590+1)</f>
+        <f t="shared" si="207"/>
         <v>7.3</v>
       </c>
       <c r="E590" s="1">
-        <f>INDEX(E$184:E$361,$R590+1)</f>
+        <f t="shared" si="207"/>
         <v>2</v>
       </c>
       <c r="F590" s="1">
-        <f>INDEX(F$184:F$361,$R590+1)</f>
+        <f t="shared" si="207"/>
         <v>174</v>
       </c>
       <c r="G590" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>19.966977104974738</v>
       </c>
       <c r="H590" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>30.017073413789351</v>
       </c>
       <c r="I590" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.62640264877753737</v>
       </c>
       <c r="J590" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>2</v>
       </c>
       <c r="K590" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q590" s="1">
         <v>0.98236888344140216</v>
       </c>
       <c r="R590" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>174</v>
       </c>
     </row>
     <row r="591" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
-        <f>INDEX(A$184:A$361,$R591+1)</f>
+        <f t="shared" si="207"/>
         <v>11.96</v>
       </c>
       <c r="B591" s="1">
-        <f>INDEX(B$184:B$361,$R591+1)</f>
+        <f t="shared" si="207"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="C591" s="1">
-        <f>INDEX(C$184:C$361,$R591+1)</f>
+        <f t="shared" si="207"/>
         <v>3.38</v>
       </c>
       <c r="D591" s="1">
-        <f>INDEX(D$184:D$361,$R591+1)</f>
+        <f t="shared" si="207"/>
         <v>3.21</v>
       </c>
       <c r="E591" s="1">
-        <f>INDEX(E$184:E$361,$R591+1)</f>
+        <f t="shared" si="207"/>
         <v>1</v>
       </c>
       <c r="F591" s="1">
-        <f>INDEX(F$184:F$361,$R591+1)</f>
+        <f t="shared" si="207"/>
         <v>74</v>
       </c>
       <c r="G591" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>23.135220727533767</v>
       </c>
       <c r="H591" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>5.3589141938000031</v>
       </c>
       <c r="I591" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>36.067915262717989</v>
       </c>
       <c r="J591" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="K591" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q591" s="1">
         <v>0.4174341417883668</v>
       </c>
       <c r="R591" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>74</v>
       </c>
     </row>
     <row r="592" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
-        <f>INDEX(A$184:A$361,$R592+1)</f>
+        <f t="shared" si="207"/>
         <v>12.07</v>
       </c>
       <c r="B592" s="1">
-        <f>INDEX(B$184:B$361,$R592+1)</f>
+        <f t="shared" si="207"/>
         <v>2.16</v>
       </c>
       <c r="C592" s="1">
-        <f>INDEX(C$184:C$361,$R592+1)</f>
+        <f t="shared" si="207"/>
         <v>2.6</v>
       </c>
       <c r="D592" s="1">
-        <f>INDEX(D$184:D$361,$R592+1)</f>
+        <f t="shared" si="207"/>
         <v>2.76</v>
       </c>
       <c r="E592" s="1">
-        <f>INDEX(E$184:E$361,$R592+1)</f>
+        <f t="shared" si="207"/>
         <v>1</v>
       </c>
       <c r="F592" s="1">
-        <f>INDEX(F$184:F$361,$R592+1)</f>
+        <f t="shared" si="207"/>
         <v>125</v>
       </c>
       <c r="G592" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>19.000100095613895</v>
       </c>
       <c r="H592" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.72684691183734762</v>
       </c>
       <c r="I592" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>16.367620690846113</v>
       </c>
       <c r="J592" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="K592" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q592" s="1">
         <v>0.70233328667019379</v>
       </c>
       <c r="R592" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>125</v>
       </c>
     </row>
     <row r="593" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
-        <f>INDEX(A$184:A$361,$R593+1)</f>
+        <f t="shared" si="207"/>
         <v>13.41</v>
       </c>
       <c r="B593" s="1">
-        <f>INDEX(B$184:B$361,$R593+1)</f>
+        <f t="shared" si="207"/>
         <v>3.84</v>
       </c>
       <c r="C593" s="1">
-        <f>INDEX(C$184:C$361,$R593+1)</f>
+        <f t="shared" si="207"/>
         <v>2.4500000000000002</v>
       </c>
       <c r="D593" s="1">
-        <f>INDEX(D$184:D$361,$R593+1)</f>
+        <f t="shared" si="207"/>
         <v>4.28</v>
       </c>
       <c r="E593" s="1">
-        <f>INDEX(E$184:E$361,$R593+1)</f>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="F593" s="1">
-        <f>INDEX(F$184:F$361,$R593+1)</f>
+        <f t="shared" si="207"/>
         <v>41</v>
       </c>
       <c r="G593" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>10.095022912395283</v>
       </c>
       <c r="H593" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>9.8758907228034669</v>
       </c>
       <c r="I593" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>7.0840013064728495</v>
       </c>
       <c r="J593" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>2</v>
       </c>
       <c r="K593" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="Q593" s="1">
         <v>0.23544938096169943</v>
       </c>
       <c r="R593" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>41</v>
       </c>
     </row>
     <row r="594" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
-        <f>INDEX(A$184:A$361,$R594+1)</f>
+        <f t="shared" si="207"/>
         <v>13.05</v>
       </c>
       <c r="B594" s="1">
-        <f>INDEX(B$184:B$361,$R594+1)</f>
+        <f t="shared" si="207"/>
         <v>1.73</v>
       </c>
       <c r="C594" s="1">
-        <f>INDEX(C$184:C$361,$R594+1)</f>
+        <f t="shared" si="207"/>
         <v>2.72</v>
       </c>
       <c r="D594" s="1">
-        <f>INDEX(D$184:D$361,$R594+1)</f>
+        <f t="shared" si="207"/>
         <v>7.2</v>
       </c>
       <c r="E594" s="1">
-        <f>INDEX(E$184:E$361,$R594+1)</f>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="F594" s="1">
-        <f>INDEX(F$184:F$361,$R594+1)</f>
+        <f t="shared" si="207"/>
         <v>50</v>
       </c>
       <c r="G594" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>4.4490610201758187</v>
       </c>
       <c r="H594" s="1">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>22.910816661169882</v>
       </c>
       <c r="I594" s="1">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>10.955219757059915</v>
       </c>
       <c r="J594" s="1">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="K594" s="1" t="b">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q594" s="1">
         <v>0.28170323852063139</v>
       </c>
       <c r="R594" s="1">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>50</v>
       </c>
     </row>
     <row r="595" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J595" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K595" s="1">
         <f>COUNTIF(K565:K594,TRUE)/COUNTA(K565:K594)</f>
@@ -36806,523 +36806,523 @@
     </row>
     <row r="600" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
-        <f t="shared" ref="A600:C600" si="205">-G566</f>
+        <f t="shared" ref="A600:C600" si="208">-G566</f>
         <v>-0.8284473324151298</v>
       </c>
       <c r="B600" s="1">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>-17.002013335668401</v>
       </c>
       <c r="C600" s="1">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>-10.896148676690979</v>
       </c>
       <c r="D600" s="1">
-        <f t="shared" ref="D600:D628" si="206">J566</f>
+        <f t="shared" ref="D600:D628" si="209">J566</f>
         <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
-        <f t="shared" ref="A601:C601" si="207">-G567</f>
+        <f t="shared" ref="A601:C601" si="210">-G567</f>
         <v>-35.983910644009256</v>
       </c>
       <c r="B601" s="1">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>-11.582467226125138</v>
       </c>
       <c r="C601" s="1">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>-5.5447226911049734</v>
       </c>
       <c r="D601" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
-        <f t="shared" ref="A602:C602" si="208">-G568</f>
+        <f t="shared" ref="A602:C602" si="211">-G568</f>
         <v>-34.552384738449142</v>
       </c>
       <c r="B602" s="1">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>-4.2107044568108973</v>
       </c>
       <c r="C602" s="1">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>-25.558204225985058</v>
       </c>
       <c r="D602" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
-        <f t="shared" ref="A603:C603" si="209">-G569</f>
+        <f t="shared" ref="A603:C603" si="212">-G569</f>
         <v>-36.126674440365576</v>
       </c>
       <c r="B603" s="1">
+        <f t="shared" si="212"/>
+        <v>-58.664823306619233</v>
+      </c>
+      <c r="C603" s="1">
+        <f t="shared" si="212"/>
+        <v>-3.1705037764243835</v>
+      </c>
+      <c r="D603" s="1">
         <f t="shared" si="209"/>
-        <v>-58.664823306619233</v>
-      </c>
-      <c r="C603" s="1">
-        <f t="shared" si="209"/>
-        <v>-3.1705037764243835</v>
-      </c>
-      <c r="D603" s="1">
-        <f t="shared" si="206"/>
         <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
-        <f t="shared" ref="A604:C604" si="210">-G570</f>
+        <f t="shared" ref="A604:C604" si="213">-G570</f>
         <v>-15.501815067828709</v>
       </c>
       <c r="B604" s="1">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>-0.26515358644159748</v>
       </c>
       <c r="C604" s="1">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>-9.6998360929453593</v>
       </c>
       <c r="D604" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
-        <f t="shared" ref="A605:C605" si="211">-G571</f>
+        <f t="shared" ref="A605:C605" si="214">-G571</f>
         <v>-21.803908159468016</v>
       </c>
       <c r="B605" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>-28.25883381032196</v>
       </c>
       <c r="C605" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>-5.6066013183420855</v>
       </c>
       <c r="D605" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
-        <f t="shared" ref="A606:C606" si="212">-G572</f>
+        <f t="shared" ref="A606:C606" si="215">-G572</f>
         <v>-25.233143467794395</v>
       </c>
       <c r="B606" s="1">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>-3.5313091426779311</v>
       </c>
       <c r="C606" s="1">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>-27.808301528311993</v>
       </c>
       <c r="D606" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
-        <f t="shared" ref="A607:C607" si="213">-G573</f>
+        <f t="shared" ref="A607:C607" si="216">-G573</f>
         <v>-6.4145907809116558</v>
       </c>
       <c r="B607" s="1">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>-42.268220978116908</v>
       </c>
       <c r="C607" s="1">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>-28.378705619011882</v>
       </c>
       <c r="D607" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
-        <f t="shared" ref="A608:C608" si="214">-G574</f>
+        <f t="shared" ref="A608:C608" si="217">-G574</f>
         <v>-24.88792551777642</v>
       </c>
       <c r="B608" s="1">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>-0.75670989833599123</v>
       </c>
       <c r="C608" s="1">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>-10.715536051188192</v>
       </c>
       <c r="D608" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
-        <f t="shared" ref="A609:C609" si="215">-G575</f>
+        <f t="shared" ref="A609:C609" si="218">-G575</f>
         <v>-10.095022912395283</v>
       </c>
       <c r="B609" s="1">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>-9.8758907228034669</v>
       </c>
       <c r="C609" s="1">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>-7.0840013064728495</v>
       </c>
       <c r="D609" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
-        <f t="shared" ref="A610:C610" si="216">-G576</f>
+        <f t="shared" ref="A610:C610" si="219">-G576</f>
         <v>-0.80411364059924817</v>
       </c>
       <c r="B610" s="1">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>-19.334748181845974</v>
       </c>
       <c r="C610" s="1">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>-16.22680370445671</v>
       </c>
       <c r="D610" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
-        <f t="shared" ref="A611:C611" si="217">-G577</f>
+        <f t="shared" ref="A611:C611" si="220">-G577</f>
         <v>-22.59855011859101</v>
       </c>
       <c r="B611" s="1">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>-1.4387692829525551</v>
       </c>
       <c r="C611" s="1">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>-10.65122049781133</v>
       </c>
       <c r="D611" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
-        <f t="shared" ref="A612:C612" si="218">-G578</f>
+        <f t="shared" ref="A612:C612" si="221">-G578</f>
         <v>-3.8979845253924843</v>
       </c>
       <c r="B612" s="1">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>-5.7154430600381758</v>
       </c>
       <c r="C612" s="1">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>-11.119873176711922</v>
       </c>
       <c r="D612" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
-        <f t="shared" ref="A613:C613" si="219">-G579</f>
+        <f t="shared" ref="A613:C613" si="222">-G579</f>
         <v>-6.6601354496217047</v>
       </c>
       <c r="B613" s="1">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>-2.8924193017743942</v>
       </c>
       <c r="C613" s="1">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>-9.7089611828094142</v>
       </c>
       <c r="D613" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
-        <f t="shared" ref="A614:C614" si="220">-G580</f>
+        <f t="shared" ref="A614:C614" si="223">-G580</f>
         <v>-39.263935218382507</v>
       </c>
       <c r="B614" s="1">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>-66.135863711391451</v>
       </c>
       <c r="C614" s="1">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>-2.2906550098168044</v>
       </c>
       <c r="D614" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
-        <f t="shared" ref="A615:C615" si="221">-G581</f>
+        <f t="shared" ref="A615:C615" si="224">-G581</f>
         <v>-7.0176640661264305</v>
       </c>
       <c r="B615" s="1">
-        <f t="shared" si="221"/>
+        <f t="shared" si="224"/>
         <v>-2.2626622850633638</v>
       </c>
       <c r="C615" s="1">
-        <f t="shared" si="221"/>
+        <f t="shared" si="224"/>
         <v>-10.371920377726905</v>
       </c>
       <c r="D615" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
-        <f t="shared" ref="A616:C616" si="222">-G582</f>
+        <f t="shared" ref="A616:C616" si="225">-G582</f>
         <v>-0.68326513371951225</v>
       </c>
       <c r="B616" s="1">
-        <f t="shared" si="222"/>
+        <f t="shared" si="225"/>
         <v>-15.513282016585475</v>
       </c>
       <c r="C616" s="1">
-        <f t="shared" si="222"/>
+        <f t="shared" si="225"/>
         <v>-10.929730316319345</v>
       </c>
       <c r="D616" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
-        <f t="shared" ref="A617:C617" si="223">-G583</f>
+        <f t="shared" ref="A617:C617" si="226">-G583</f>
         <v>-37.81282633757597</v>
       </c>
       <c r="B617" s="1">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>-55.770873734506083</v>
       </c>
       <c r="C617" s="1">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>-1.6431057889601908</v>
       </c>
       <c r="D617" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
-        <f t="shared" ref="A618:C618" si="224">-G584</f>
+        <f t="shared" ref="A618:C618" si="227">-G584</f>
         <v>-25.705377412661928</v>
       </c>
       <c r="B618" s="1">
-        <f t="shared" si="224"/>
+        <f t="shared" si="227"/>
         <v>-17.532026961486267</v>
       </c>
       <c r="C618" s="1">
-        <f t="shared" si="224"/>
+        <f t="shared" si="227"/>
         <v>-5.5876914923331773</v>
       </c>
       <c r="D618" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
-        <f t="shared" ref="A619:C619" si="225">-G585</f>
+        <f t="shared" ref="A619:C619" si="228">-G585</f>
         <v>-12.371012771187814</v>
       </c>
       <c r="B619" s="1">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>-7.3619554456964131</v>
       </c>
       <c r="C619" s="1">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>-6.2591408124688712</v>
       </c>
       <c r="D619" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
-        <f t="shared" ref="A620:C620" si="226">-G586</f>
+        <f t="shared" ref="A620:C620" si="229">-G586</f>
         <v>-0.68326513371951225</v>
       </c>
       <c r="B620" s="1">
-        <f t="shared" si="226"/>
+        <f t="shared" si="229"/>
         <v>-15.513282016585475</v>
       </c>
       <c r="C620" s="1">
-        <f t="shared" si="226"/>
+        <f t="shared" si="229"/>
         <v>-10.929730316319345</v>
       </c>
       <c r="D620" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
-        <f t="shared" ref="A621:C621" si="227">-G587</f>
+        <f t="shared" ref="A621:C621" si="230">-G587</f>
         <v>-2.40574570464885</v>
       </c>
       <c r="B621" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="230"/>
         <v>-6.7101343650670096</v>
       </c>
       <c r="C621" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="230"/>
         <v>-10.830580508629684</v>
       </c>
       <c r="D621" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
-        <f t="shared" ref="A622:C622" si="228">-G588</f>
+        <f t="shared" ref="A622:C622" si="231">-G588</f>
         <v>-24.296257937260901</v>
       </c>
       <c r="B622" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="231"/>
         <v>-8.3113431013021462</v>
       </c>
       <c r="C622" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="231"/>
         <v>-2.5101723880954978</v>
       </c>
       <c r="D622" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
-        <f t="shared" ref="A623:C623" si="229">-G589</f>
+        <f t="shared" ref="A623:C623" si="232">-G589</f>
         <v>-26.503162401942696</v>
       </c>
       <c r="B623" s="1">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>-2.7951865417554389</v>
       </c>
       <c r="C623" s="1">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>-13.575367556927748</v>
       </c>
       <c r="D623" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
-        <f t="shared" ref="A624:C624" si="230">-G590</f>
+        <f t="shared" ref="A624:C624" si="233">-G590</f>
         <v>-19.966977104974738</v>
       </c>
       <c r="B624" s="1">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>-30.017073413789351</v>
       </c>
       <c r="C624" s="1">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>-0.62640264877753737</v>
       </c>
       <c r="D624" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
-        <f t="shared" ref="A625:C625" si="231">-G591</f>
+        <f t="shared" ref="A625:C625" si="234">-G591</f>
         <v>-23.135220727533767</v>
       </c>
       <c r="B625" s="1">
-        <f t="shared" si="231"/>
+        <f t="shared" si="234"/>
         <v>-5.3589141938000031</v>
       </c>
       <c r="C625" s="1">
-        <f t="shared" si="231"/>
+        <f t="shared" si="234"/>
         <v>-36.067915262717989</v>
       </c>
       <c r="D625" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
-        <f t="shared" ref="A626:C626" si="232">-G592</f>
+        <f t="shared" ref="A626:C626" si="235">-G592</f>
         <v>-19.000100095613895</v>
       </c>
       <c r="B626" s="1">
-        <f t="shared" si="232"/>
+        <f t="shared" si="235"/>
         <v>-0.72684691183734762</v>
       </c>
       <c r="C626" s="1">
-        <f t="shared" si="232"/>
+        <f t="shared" si="235"/>
         <v>-16.367620690846113</v>
       </c>
       <c r="D626" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
-        <f t="shared" ref="A627:C627" si="233">-G593</f>
+        <f t="shared" ref="A627:C627" si="236">-G593</f>
         <v>-10.095022912395283</v>
       </c>
       <c r="B627" s="1">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>-9.8758907228034669</v>
       </c>
       <c r="C627" s="1">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>-7.0840013064728495</v>
       </c>
       <c r="D627" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
-        <f t="shared" ref="A628:C628" si="234">-G594</f>
+        <f t="shared" ref="A628:C628" si="237">-G594</f>
         <v>-4.4490610201758187</v>
       </c>
       <c r="B628" s="1">
-        <f t="shared" si="234"/>
+        <f t="shared" si="237"/>
         <v>-22.910816661169882</v>
       </c>
       <c r="C628" s="1">
-        <f t="shared" si="234"/>
+        <f t="shared" si="237"/>
         <v>-10.955219757059915</v>
       </c>
       <c r="D628" s="1">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
     </row>
@@ -37346,13 +37346,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -37422,7 +37422,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -37478,1262 +37478,1262 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.20939611238154776</v>
+        <f t="shared" ref="A1:J1" ca="1" si="0">RAND()</f>
+        <v>0.77080976308796478</v>
       </c>
       <c r="B1" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.54647521956381107</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12499353068998509</v>
       </c>
       <c r="C1" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.48768433278332568</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1092714652950324E-2</v>
       </c>
       <c r="D1" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.85459755367411705</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42892495770703876</v>
       </c>
       <c r="E1" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.77265758266856222</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15272652709796164</v>
       </c>
       <c r="F1" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.46678152131698736</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9367644268317783</v>
       </c>
       <c r="G1" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.94080687312460554</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65840931121222479</v>
       </c>
       <c r="H1" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.91855235153225734</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46373891854918237</v>
       </c>
       <c r="I1" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.20247347021260687</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87707152150517731</v>
       </c>
       <c r="J1" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.82664566632312253</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2632696554208964E-2</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <f t="shared" ref="A2:J30" ca="1" si="0">RAND()</f>
-        <v>0.80861792749311567</v>
+        <f t="shared" ref="A2:J27" ca="1" si="1">RAND()</f>
+        <v>0.13771147105134973</v>
       </c>
       <c r="B2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.92031147962326387</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.55193461019474344</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.17722348114689257</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.47116078194639877</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.22430531390523878</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.81852849242032033</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.12852002739983825</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9054817941665616</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.7027949619894136</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.20704294511285171</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.48773652740612161</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.54001490013506603</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39496693661509763</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.53868081995599548</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.78738517034049249</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.34413187105618592</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2639112183816803</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.93176963994045869</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.57981575798976015</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.66202480839766964</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.41057135084820795</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.5673877173226527</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.29618737259850525</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.71559728531483935</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.15981823493467961</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.4342938375748004E-2</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.9566632369484647E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.75706629933460101</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5077229615702944</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4871136984680926</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.94916851663122659</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.59187454320065291</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.59337300437438434</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.23381680512767844</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.83423228359093793</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.14167306611356589</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.42239421548928402</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.86795652941102364</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.97518880674435693</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.68770523545497353</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.46797425114332902</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.53628117399020547</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.93622672446393729</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.87195172504348395</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.436795410678652E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1351294536353399</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.65429453640538371</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.49038689158352844</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.73054876216832787</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.12772313856547435</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.35364821870191221</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.90640227085602498</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.43539066484362154</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.9519035232159032E-2</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23967759383535281</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.91984324523167826</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.4464384722320163E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.38453565431233827</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.17502615141042766</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.4257920980797616E-2</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.88498100846311423</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.64728626093228525</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.75136129161300635</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.79659467055066269</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.68334578263639323</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.637259077994571E-2</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.24701661931238295</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.96843803582105525</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.80528885896560942</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.4538907604237417E-2</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.9987928138543505E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.5044723595970716</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.68992088578285049</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.71135496204700532</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32251707128325402</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.51159525199652711</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.44581716086862833</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.54442109369333136</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25842040269397049</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.59528991426586964</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.7584418140240804</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.26362208857549874</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32531397737686996</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.98076845103209809</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.42486185333577287</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.74260594000750746</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9673945463211594</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89196214775961358</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.81261588614320424</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.49838096767717555</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.34109564677978998</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56203229735175253</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.19219478619313413</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.74289808508518862</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.42734857419316474</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2290624234820966</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.21478134955333328</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.99717417405264142</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.82056615236415431</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.61714861446209457</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.18281698984639039</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2519646907878561</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.31401996105143071</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.63151198801939812</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.44579614253976241</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6717453266168103</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89107628805043482</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.94964063622003292</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.54904972722131107</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.35448305148178505</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.67424671119142554</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.76202199609462085</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.73917602227220425</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.57376206462828194</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.10311150270911584</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6273140751853461</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.40158300853469764</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.82115345261248418</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9999424404859788</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.47634073641492591</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.75296775677083261</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.74516359126608367</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39533321098626395</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.62650561227069701</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89680607272121526</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33457007146690865</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.30203867555884378</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.7713561752217295E-4</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.77477063247242328</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.71319391046022795</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.81711134053308343</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2388614423729527</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.76117645855810379</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.40417709506978339</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.12487217127669215</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.72357574216682163</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.17151532602896091</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2586266969101445</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.28240354191351613</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.61115798635002772</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.78074914269885909</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4353148743749643</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.67987393828458642</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.97801410469324479</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.88322282230852067</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.58300328583665251</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.22368053914170338</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.20429936634361823</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.81030460618842615</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.85013555882459257</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.79004415390306015</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.34520664364502007</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.74768229547090459</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.76326969563562264</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.72293994251291382</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.98181066136895623</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.30161292048613642</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.86151781082399082</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.98522242067075583</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.15474710636964739</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.53335757699762631</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.53575532689540573</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.8671368987172179E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.47291923871767183</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.60500924659333966</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.77161899989537064</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.12985441655674979</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.17740406631399142</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.95469824602124287</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.97044293665482806</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.48698060097140605</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.55944335301090231</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.93834239205588521</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.39669319195160857</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3550735622721144</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.12831010113940478</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.34579415118315615</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.70076477770682677</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2714063429850881E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37059241651249319</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23505937444926039</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.15754776042248164</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.58941089932387158</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.86439739994018372</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70681860378204819</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.19832921024874262</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.34497917601802619</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6645295285486974</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.73967023309595181</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.23243141998179606</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.48638639287030072</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.0498268345483339E-2</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6207714696980372</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.93481026302376624</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70969594795147872</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.66486080557385874</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2557270288343303E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.98446541232832807</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3595468797494243E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.75635844560394272</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.94915855591783438</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88706315101968414</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.58518683406159477</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.57577799164843546</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.59707042535683297</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.38636083934306786</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.35668504110609112</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1548544427365407</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.93837450527506694</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.20994805732424471</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2557425972348546</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.59657868794096192</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89421836462495663</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.16501269622402015</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.76940703194701188</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.10970344387504261</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.27688939785021438</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45339837604069566</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.4795845407965245E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.66241163463670183</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16592998301574402</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.20049169927097055</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.21843184234536595</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.30687431382529318</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3930930888855666</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.915161693798624</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.84120765038092071</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.48029735900533188</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70809276442205948</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.43636647778140758</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89436316044882236</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.5364966609352315E-2</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.51589785472546912</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.79285762683810823</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.48266838899671671</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.5620326129860556E-2</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.21561780678678266</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.59279159401045889</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.18499975155048187</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.12635107948564861</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.68626841038841802</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89007721480863011</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3168042648186717E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9426963145230437</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.71119696550193967</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.91183793601981022</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.26886602979623153</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50195130244887942</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.80692454580741313</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.86787124626854306</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.53053786387346791</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44799022963738921</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.95091179317208629</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.25095157257671841</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4366871936507839</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.3918812579159856</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.83870219449122896</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36196829133574182</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.92212666087548933</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.84142236621685051</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.77249782450382687</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.0754657325111325E-2</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1173729873572853E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88727043643624282</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.18775619952883704</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.29355146469331972</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.67459038676380234</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9.202778945163459E-2</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.77496341388069223</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.55430344141016408</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.78843598176667806</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.59935867993330694</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.78600411012610916</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.7016695451700431</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.3667314789371692E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.49591572471564815</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.57314563637085769</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.10288637604813911</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23783119349479598</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.29016622693156258</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.90040959513851859</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.95965610211400687</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.83067834951271158</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.76513740113243212</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.71271899784873072</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88365305827355722</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.93323171605996424</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.23647973200944616</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.29906203452254332</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.53468085875074756</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.11710439973679565</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.97629191375469926</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.49852866748074676</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.60533592956443161</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.63370265689895955</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.41606372034021244</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.96043800901831644</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8813780172111606</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.8215882348926309E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.14029346862746839</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.57010816377143914</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89426192230286161</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6709258706453389E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.69869888116993628</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.29596565656694052</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45881840693247911</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.96182844911054255</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.61565227263536115</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.59649390286603754</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.39144840964908045</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.77966813749914521</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.3826732920351763</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.65242393222167461</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.24503061217608835</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89270719344988303</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33286534491541098</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.51851268747998835</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56527214432697137</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.30290008561856219</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56210416551059494</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.79088862757465372</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89588233028905639</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.94078452016796477</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.30120603023191583</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2529869857182333</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89069714907956443</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.8212991222115336E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.84569767021358622</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.22973116667089277</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.26311306521281774</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.37305133214006403</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.97622558849686147</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.22469608048362066</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8257155445189529</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.38619156733434168</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.98977161076768005</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9648309684417179</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6923562660827941</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.79173843475482797</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1874755493058986</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.71214814356980805</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.3749197947571243E-2</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.91753046630101709</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65225846925664033</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.55415683946894678</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.93205607966319903</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7261093695001994E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.83080067326369522</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1718887974415324</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.80755012019900407</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.2277631211267477E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6844299290959541E-2</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.55392557265568865</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.40954807195442822</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.93230026777893626</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.94952711914539489</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.69815589132503542</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.48733293056734761</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.28850410656742931</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.76664111280493841</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.98254573635238707</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.17883831632107172</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.45870990456640348</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37006835177535524</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.95542404492936506</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.69996303247175318</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.51765495321785304</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.77599810208381115</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1117297448624307</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.21906975730696165</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.48775806513928077</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4582080588821047</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2432496394407424</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.17166520615392511</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.96113151270042174</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.14909149756468054</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.71597690023395688</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1529365124818135</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.41301295658903214</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.74270507438162414</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.98335770913307563</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45883646572545678</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9132191442529779</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.20526169717647902</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.24848250053117305</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.98614687226466846</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.83086402528737413</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.96946737713931763</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.88828588828053145</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.23671241324928072</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.51500358325708395</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.76046179795685775</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.13897132491240727</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.95920769984128118</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.30521890823735731</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.58270855955755041</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.45874068437435689</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8238357556463608</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.80097751184199595</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33011711655490306</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14116674165277088</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.3085550934162091E-3</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.36773050898029436</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50584178236232613</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.41578329541931491</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.77704840690882326</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.7545884201382393E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.28575197959034915</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.27714182223790118</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.3861658398749499</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.0408298801777551E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44827587169566463</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.8876539061385389</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9438887308120758</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25910068941229958</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.74140829387207285</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.8974011989695635</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.57758284853162556</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.62312669959979028</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.49659653218196464</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1296974155974413</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.92749995820225195</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.85847914626916078</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4103663809389172</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.80700411554058393</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8300063437875167</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.17060686742529196</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.29682205559099994</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.24945313153878712</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.85846371601062643</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.77020324963456555</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.78156780196509401</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.78036086430953555</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.93385691581466368</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32194203866979043</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.78812374088810122</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.59833350119918016</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.70498842094689484</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32371238189086626</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.66401557684843238</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.84029625413367703</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.29283534071077499</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.21778096307479455</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.15882256912451032</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14125281652474342</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.10812970356183649</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.88579894042262786</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.69000600695169445</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.95935196544410861</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8397825961935218</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.37016889153480859</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50609930897284483</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.92816981819106326</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.46155286613258195</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.62316006111290567</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4470069281091793</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32378596281596084</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6949696321991129</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.2646796916657634E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.25173783281906237</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.6177590082842195E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.42262337972301112</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.65150903195463172</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.95855534091624484</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.30897863930779434</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.69195028725724905</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.64987671959392834</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6132700461722137</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.67410067018358566</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.0767300153990873E-2</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.68864023971928046</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.52942221999556238</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5297606087045269</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.82592619123327016</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89370124002904672</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45857363677397056</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.94983221257242534</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.84000613491387488</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.81705115411625684</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.14552873478803385</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.50890217262984039</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.95339223257185801</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.62868590679844649</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.49874983935482E-2</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32755317345688273</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9.1240757583144205E-3</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.61979721251814768</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.82410328323849102</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.30193799576470404</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37027759337081689</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.44230450503019048</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.0657296191522714E-2</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1680487394862834</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.10868201311211656</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3995478921102911E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.38715494756397228</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.19872903382234153</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.71554596840790852</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.96843377010577325</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.64358058707303734</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.81888028997226747</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.81382333777747606</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.42493452253535868</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37868211182439093</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.68748875885841576</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89378257281865414</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.96737806353941169</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.20906091162288409</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" ref="F27:J30" ca="1" si="1">RAND()</f>
-        <v>0.62596190668874951</v>
+        <f t="shared" ref="F27:J30" ca="1" si="2">RAND()</f>
+        <v>0.6484727424271115</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.41215657034883801</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.94925506106971658</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.47247500494810868</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3907314521498374</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.74341803682208629</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.31759602817150323</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.25706782807150885</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.79577138135485792</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f t="shared" ref="A28:E30" ca="1" si="2">RAND()</f>
-        <v>2.019732602668689E-2</v>
+        <f t="shared" ref="A28:E30" ca="1" si="3">RAND()</f>
+        <v>0.23637723858326365</v>
       </c>
       <c r="B28" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.89156239207646693</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.34629864848507308</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.10182315702505118</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.10517844977492963</v>
+      </c>
+      <c r="F28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56433167971778553</v>
-      </c>
-      <c r="C28" s="1">
+        <v>1.585359129517161E-2</v>
+      </c>
+      <c r="G28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62029815612962269</v>
-      </c>
-      <c r="D28" s="1">
+        <v>0.61825711548910678</v>
+      </c>
+      <c r="H28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56702921663384764</v>
-      </c>
-      <c r="E28" s="1">
+        <v>0.85148218211194171</v>
+      </c>
+      <c r="I28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0195738869143609E-2</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.78282690780960651</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.63694161241186997</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.68684988416354331</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.66906067530983904</v>
+        <v>0.30272696153863288</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.93543084356585926</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.65762745949481638</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.18520447126912087</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.68693722667965507</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.70510364236401102</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.18170889834557957</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.61229011069325678</v>
+      </c>
+      <c r="F29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93538900221317678</v>
-      </c>
-      <c r="B29" s="1">
+        <v>0.70452952345370301</v>
+      </c>
+      <c r="G29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21249916141837855</v>
-      </c>
-      <c r="C29" s="1">
+        <v>0.12417591952606466</v>
+      </c>
+      <c r="H29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30055607124209094</v>
-      </c>
-      <c r="D29" s="1">
+        <v>0.68945008714213585</v>
+      </c>
+      <c r="I29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47909435956910873</v>
-      </c>
-      <c r="E29" s="1">
+        <v>0.65331757384665679</v>
+      </c>
+      <c r="J29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18849448269086855</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.77962916001135663</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.79378859736351393</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.88392928123169678</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.26545572851503751</v>
-      </c>
-      <c r="J29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.9647632988591557E-2</v>
+        <v>2.2429660049660183E-2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.0417938443682337E-2</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.87399693137586343</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.42590375353165799</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.45536551389628976</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.11808601524138518</v>
+      </c>
+      <c r="F30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93303912447843929</v>
-      </c>
-      <c r="B30" s="1">
+        <v>0.78392288227968809</v>
+      </c>
+      <c r="G30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22904276357368747</v>
-      </c>
-      <c r="C30" s="1">
+        <v>0.9239802442466778</v>
+      </c>
+      <c r="H30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27493361585926757</v>
-      </c>
-      <c r="D30" s="1">
+        <v>6.0628757225887675E-2</v>
+      </c>
+      <c r="I30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65190694243658298</v>
-      </c>
-      <c r="E30" s="1">
+        <v>0.81856190123892991</v>
+      </c>
+      <c r="J30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10084439232897247</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.7788728504944924</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.157717408396544E-2</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.335387052192119E-2</v>
-      </c>
-      <c r="I30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.46788531122929555</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.52226886763418723</v>
+        <v>0.74334893993757689</v>
       </c>
     </row>
   </sheetData>
